--- a/OrangeHrmDemo/OrangeHrmLogin.xlsx
+++ b/OrangeHrmDemo/OrangeHrmLogin.xlsx
@@ -1,22 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NITIN SARGARA\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{CFF8731D-6D2E-4261-AE8E-A88200C2ACE2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" activeTab="1" xr2:uid="{AB4D16C7-8DEF-4747-8B5D-AE2455ED2ADB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14265" windowHeight="1605" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="testCases" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:N3"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Admin</t>
   </si>
@@ -41,12 +37,36 @@
   </si>
   <si>
     <t>Charlie</t>
+  </si>
+  <si>
+    <t>ename</t>
+  </si>
+  <si>
+    <t>eID</t>
+  </si>
+  <si>
+    <t>supname</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Odis Adalwin</t>
+  </si>
+  <si>
+    <t>John Smith</t>
+  </si>
+  <si>
+    <t>%%</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>John Don</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -76,8 +96,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,16 +412,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200CF850-7EFD-4EC1-B774-1D9E1FFE3767}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,16 +435,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D98725-D137-4C2E-A74B-7A4A4FB9C65A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -431,12 +452,83 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
